--- a/backlog3.xlsx
+++ b/backlog3.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="8460" windowHeight="1580"/>
   </bookViews>
   <sheets>
-    <sheet name="backlog2" sheetId="1" r:id="rId1"/>
+    <sheet name="backlog3" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
   <si>
     <t>As a/an</t>
   </si>
@@ -144,15 +144,9 @@
     <t xml:space="preserve">gain points for each word spelt correctly </t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t xml:space="preserve">user </t>
   </si>
   <si>
-    <t>have the option to save or continue game as desired</t>
-  </si>
-  <si>
     <t>o</t>
   </si>
   <si>
@@ -168,9 +162,6 @@
     <t>it adds to the local feel of the game and overall make it more enjoyable</t>
   </si>
   <si>
-    <t>So for example if the category is music, the background can be an image of a steel pan</t>
-  </si>
-  <si>
     <t>q</t>
   </si>
   <si>
@@ -196,6 +187,15 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>phase 2</t>
+  </si>
+  <si>
+    <t>So for example if the category is music, the associated image can be an image of a steel pan</t>
+  </si>
+  <si>
+    <t>use enable and disable letter features</t>
   </si>
 </sst>
 </file>
@@ -338,7 +338,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -521,18 +521,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,20 +685,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1034,48 +1021,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.90625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="45" style="3" customWidth="1"/>
-    <col min="5" max="5" width="25.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="38" style="2" customWidth="1"/>
+    <col min="4" max="4" width="34.54296875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.1796875" style="2" customWidth="1"/>
     <col min="6" max="6" width="6.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.36328125" customWidth="1"/>
+    <col min="8" max="8" width="7.7265625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1085,7 +1072,7 @@
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F2">
@@ -1094,7 +1081,7 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="5">
         <v>0.4</v>
       </c>
     </row>
@@ -1105,20 +1092,20 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>54</v>
+        <v>3</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -1128,10 +1115,10 @@
       <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F4">
@@ -1140,16 +1127,19 @@
       <c r="G4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H4" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -1157,8 +1147,8 @@
       <c r="G5">
         <v>2</v>
       </c>
-      <c r="H5" t="s">
-        <v>54</v>
+      <c r="H5" s="5">
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -1168,14 +1158,14 @@
       <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>56</v>
+      <c r="E6" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -1183,21 +1173,21 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="H6" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F7">
@@ -1205,6 +1195,9 @@
       </c>
       <c r="G7">
         <v>3</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -1214,13 +1207,13 @@
       <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F8">
@@ -1229,8 +1222,8 @@
       <c r="G8">
         <v>3</v>
       </c>
-      <c r="H8" t="s">
-        <v>54</v>
+      <c r="H8" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -1240,17 +1233,17 @@
       <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
-      <c r="H9" t="s">
-        <v>54</v>
+      <c r="H9" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -1260,7 +1253,7 @@
       <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F10">
@@ -1269,8 +1262,8 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" t="s">
-        <v>54</v>
+      <c r="H10" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -1280,7 +1273,7 @@
       <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F11">
@@ -1289,18 +1282,18 @@
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H11" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F12">
@@ -1308,6 +1301,9 @@
       </c>
       <c r="G12">
         <v>5</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -1317,7 +1313,7 @@
       <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F13">
@@ -1326,111 +1322,97 @@
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
         <v>41</v>
       </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>5</v>
-      </c>
-      <c r="H14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="F15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>55</v>
+        <v>5</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>49</v>
+      <c r="E16" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>5</v>
       </c>
-      <c r="H16" t="s">
-        <v>54</v>
+      <c r="H16" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="F17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17">
         <v>5</v>
       </c>
-      <c r="H17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>5</v>
-      </c>
-      <c r="H18" t="s">
-        <v>54</v>
+      <c r="H17" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/backlog3.xlsx
+++ b/backlog3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
   <si>
     <t>As a/an</t>
   </si>
@@ -1024,7 +1024,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1081,8 +1081,8 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" s="5">
-        <v>0.4</v>
+      <c r="H2" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -1108,7 +1108,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -1283,7 +1283,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -1392,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="29" x14ac:dyDescent="0.35">

--- a/backlog3.xlsx
+++ b/backlog3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t>As a/an</t>
   </si>
@@ -61,18 +61,6 @@
   </si>
   <si>
     <t>I can complete a game by being able to start from where I left off</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>new user</t>
-  </si>
-  <si>
-    <t>create a personal login with username and password</t>
-  </si>
-  <si>
-    <t>I can play my game with own account and others can play the same game on my phone with their own personal account</t>
   </si>
   <si>
     <t>d</t>
@@ -1021,22 +1009,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection sqref="A1:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38" style="2" customWidth="1"/>
-    <col min="4" max="4" width="34.54296875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.1796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.90625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" style="2" customWidth="1"/>
     <col min="6" max="6" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7265625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1082,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -1105,156 +1093,153 @@
         <v>3</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>51</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>56</v>
+        <v>2</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>54</v>
+      <c r="E5" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G7">
         <v>3</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G8">
         <v>3</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1263,156 +1248,136 @@
         <v>1</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F12">
         <v>6</v>
       </c>
       <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="90.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
         <v>5</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13">
-        <v>6</v>
-      </c>
-      <c r="G13">
+      <c r="H14" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15">
         <v>1</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
       </c>
       <c r="G15">
         <v>5</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16">
         <v>5</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>5</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
